--- a/Документация к Диплому/Таблички Лист 6.xlsx
+++ b/Документация к Диплому/Таблички Лист 6.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yury/Desktop/GraduateWork/Документация к Диплому/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D10A4A-6D18-0248-B931-13CFCB810153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F4898-CF71-114B-B77E-4BF67BE26B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2200" windowWidth="28240" windowHeight="17560" xr2:uid="{C2C5FC21-3A63-4741-9B13-71877AF7996D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="3" xr2:uid="{C2C5FC21-3A63-4741-9B13-71877AF7996D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>Тип тестов</t>
   </si>
@@ -51,6 +55,177 @@
   </si>
   <si>
     <t>функциональные</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Полученный результат</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Ввод кода в поле ввода ответа на форме решения задания</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Успешно</t>
+  </si>
+  <si>
+    <t>Ввод кода в поле ввода ответа на форме создания задания</t>
+  </si>
+  <si>
+    <t>Ввод кода в поле ввода задания на форме создания задания</t>
+  </si>
+  <si>
+    <t>Ввод кода в поле ввода ограничения времени на форме создания задания</t>
+  </si>
+  <si>
+    <t>Ввод кода в файле для создания схемы БД</t>
+  </si>
+  <si>
+    <t>Ошибок нет, команда выполнена, данные в основной базе не повреждены</t>
+  </si>
+  <si>
+    <t>Ввод кода в поле названия комплекта на форме создания комплекта</t>
+  </si>
+  <si>
+    <t>Ввод кода в поле электронный почты кандидата</t>
+  </si>
+  <si>
+    <t>Респондент</t>
+  </si>
+  <si>
+    <t>Комментарий по интерфейсу кандидата</t>
+  </si>
+  <si>
+    <t>Комментарий по интерфейсу менеджера</t>
+  </si>
+  <si>
+    <t>Обработка некорректных действий</t>
+  </si>
+  <si>
+    <t>Все разъяснения о порядке выполнения тестирования получены на начальном экране тестирования, проблем не возникло</t>
+  </si>
+  <si>
+    <t>Имеет смысл добавить дополнительные инструкции для менеджера о взаимодействии с полями. Например, как это реализовано в codewars. В остальном, все хорошо: механика меню продумана отлично, комплекты и задания работают, цветовая гамма выбрана удачно</t>
+  </si>
+  <si>
+    <t>Сломать систему не получилось</t>
+  </si>
+  <si>
+    <t>Все тестирование предельно понятно. Возможно, стоит подумать над оформлением письма, которое приходит на почту, чтобы оно было стилизовано под интерфейс системы</t>
+  </si>
+  <si>
+    <t>Интерфейс отлично продуман, интуитивно понятен, проблем с использованием на персональном компьютере не возникло</t>
+  </si>
+  <si>
+    <t>Нужно добавить проверку корректности введенного email для отправки кандидату. Остальные поля корректно реагируют на неверные действия пользователя</t>
+  </si>
+  <si>
+    <t>Проблем не обнаружено, тестирование пройдено</t>
+  </si>
+  <si>
+    <t>Интерфейс понятен, вопросов по использованию системы нет.</t>
+  </si>
+  <si>
+    <t>Ошибок не выявлено</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Запрос содержит компонент</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP(X) </t>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>FULL JOIN</t>
+  </si>
+  <si>
+    <t>EXCEPT</t>
+  </si>
+  <si>
+    <t>INTERSECT</t>
+  </si>
+  <si>
+    <t>COALESCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Агрегирующие функции (SUM, MAX) </t>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDER BY </t>
+  </si>
+  <si>
+    <t>HAVING</t>
+  </si>
+  <si>
+    <t>PIVOT/UNPIVOT</t>
+  </si>
+  <si>
+    <t>Общие табличные выражения (CTE)</t>
+  </si>
+  <si>
+    <t>Оконные функции (OVER)</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>Использование переменных (DECLARE/SET)</t>
+  </si>
+  <si>
+    <t>APPLY</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>FOR XML</t>
+  </si>
+  <si>
+    <t>FOR JSON</t>
+  </si>
+  <si>
+    <t>BEGIN…END</t>
+  </si>
+  <si>
+    <t>WHILE</t>
+  </si>
+  <si>
+    <t>BREAK/CONTINUE</t>
+  </si>
+  <si>
+    <t>CURSOR</t>
+  </si>
+  <si>
+    <t>MINUS</t>
+  </si>
+  <si>
+    <t>To_date</t>
+  </si>
+  <si>
+    <t>APPLY (CROSS/OUTER)</t>
   </si>
 </sst>
 </file>
@@ -67,14 +242,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="40"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="40"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -152,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -165,6 +340,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,18 +663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E720EB00-4B6E-3E42-A8C3-44650086C168}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="305" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.5" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="3" max="3" width="78.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="212" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -504,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,7 +696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,7 +707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,6 +716,760 @@
       </c>
       <c r="C4" s="2">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD87C317-3AF1-8140-B7E4-DF3A0D2A93BE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="77" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="370" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="303" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2FA69E-967E-FE4C-A0DD-F373E9CC4CBD}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9B6168-D31F-7140-BF79-755EB3D7D4EB}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="77" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="77" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B6040A-A824-7C44-84AF-266DE85BEF9E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="77" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="89" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
